--- a/TRANSFER BOOK.xlsx
+++ b/TRANSFER BOOK.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="STOCKS" sheetId="1" r:id="rId1"/>
@@ -1692,8 +1692,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1869,6 +1869,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1947,6 +1952,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1981,6 +1987,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2156,15 +2163,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
@@ -2180,7 +2187,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.75">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2224,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1">
+    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>43993</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1">
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44154</v>
       </c>
@@ -2278,7 +2285,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44434</v>
       </c>
@@ -2304,7 +2311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44386</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44386</v>
       </c>
@@ -2362,7 +2369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1">
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44474</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1">
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44501</v>
       </c>
@@ -2426,7 +2433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1">
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44502</v>
       </c>
@@ -2455,7 +2462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1">
+    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44502</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1">
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44503</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1">
+    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44503</v>
       </c>
@@ -2542,7 +2549,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44359</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1">
+    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44408</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1">
+    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44394</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1">
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44501</v>
       </c>
@@ -2667,7 +2674,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="13" customFormat="1">
+    <row r="17" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44418</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44080</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="13" customFormat="1">
+    <row r="19" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44175</v>
       </c>
@@ -2745,7 +2752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="13" customFormat="1">
+    <row r="20" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44476</v>
       </c>
@@ -2771,7 +2778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44494</v>
       </c>
@@ -2803,7 +2810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44495</v>
       </c>
@@ -2838,7 +2845,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44501</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1">
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44500</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44498</v>
       </c>
@@ -2937,7 +2944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>44499</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>44499</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1">
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>44502</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>44502</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="13" customFormat="1">
+    <row r="30" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44504</v>
       </c>
@@ -3107,7 +3114,7 @@
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" s="13" customFormat="1">
+    <row r="31" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44504</v>
       </c>
@@ -3136,7 +3143,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="13" customFormat="1">
+    <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44504</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1">
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>44504</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1">
+    <row r="34" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>44413</v>
       </c>
@@ -3223,7 +3230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="13" customFormat="1">
+    <row r="35" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>44454</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1">
+    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>44460</v>
       </c>
@@ -3287,7 +3294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="13" customFormat="1">
+    <row r="37" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>44478</v>
       </c>
@@ -3322,11 +3329,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>44499</v>
       </c>
@@ -3361,7 +3368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>44503</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="13" customFormat="1">
+    <row r="41" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>44380</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="13" customFormat="1">
+    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>44446</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="13" customFormat="1">
+    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>44446</v>
       </c>
@@ -3492,7 +3499,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="13" customFormat="1">
+    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>44190</v>
       </c>
@@ -3524,7 +3531,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="13" customFormat="1">
+    <row r="45" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44194</v>
       </c>
@@ -3550,7 +3557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="13" customFormat="1">
+    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44231</v>
       </c>
@@ -3576,7 +3583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="13" customFormat="1">
+    <row r="47" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>44233</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="13" customFormat="1">
+    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>44279</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1">
+    <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>44358</v>
       </c>
@@ -3657,7 +3664,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1">
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>44378</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44415</v>
       </c>
@@ -3715,7 +3722,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>44431</v>
       </c>
@@ -3741,7 +3748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1">
+    <row r="53" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>44446</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>44446</v>
       </c>
@@ -3799,7 +3806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1">
+    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>44450</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>44452</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>44454</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>44462</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>44462</v>
       </c>
@@ -3944,7 +3951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>44462</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>44462</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>44463</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>44467</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>44471</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>44471</v>
       </c>
@@ -4118,7 +4125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>44472</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>44472</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1">
+    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>44472</v>
       </c>
@@ -4202,7 +4209,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1">
+    <row r="69" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>44481</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>44481</v>
       </c>
@@ -4254,7 +4261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>44481</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1">
+    <row r="72" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>44488</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>44488</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>44488</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1">
+    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>44490</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>44492</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>44492</v>
       </c>
@@ -4463,7 +4470,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="13" customFormat="1">
+    <row r="78" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>44499</v>
       </c>
@@ -4492,7 +4499,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="13" customFormat="1">
+    <row r="79" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>44499</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>44501</v>
       </c>
@@ -4556,7 +4563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>44502</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>44502</v>
       </c>
@@ -4626,7 +4633,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>44503</v>
       </c>
@@ -4655,7 +4662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>44503</v>
       </c>
@@ -4684,7 +4691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>44503</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>44503</v>
       </c>
@@ -4742,7 +4749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>44503</v>
       </c>
@@ -4777,7 +4784,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="13" customFormat="1">
+    <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>44503</v>
       </c>
@@ -4812,7 +4819,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="13" customFormat="1">
+    <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>44559</v>
       </c>
@@ -4838,7 +4845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1">
+    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>44471</v>
       </c>
@@ -4870,7 +4877,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="13" customFormat="1">
+    <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>44500</v>
       </c>
@@ -4902,7 +4909,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>44503</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>44503</v>
       </c>
@@ -4966,7 +4973,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="13" customFormat="1">
+    <row r="94" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>44504</v>
       </c>
@@ -4998,7 +5005,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>101</v>
       </c>
@@ -5015,7 +5022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>44449</v>
       </c>
@@ -5041,7 +5048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="13" customFormat="1">
+    <row r="97" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>44392</v>
       </c>
@@ -5067,7 +5074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="13" customFormat="1">
+    <row r="98" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="13" t="s">
         <v>107</v>
       </c>
@@ -5084,7 +5091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="9" customFormat="1">
+    <row r="99" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>44359</v>
       </c>
@@ -5107,7 +5114,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="9" customFormat="1">
+    <row r="100" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>44492</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="13" customFormat="1">
+    <row r="101" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>44358</v>
       </c>
@@ -5165,7 +5172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="13" customFormat="1">
+    <row r="102" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>44492</v>
       </c>
@@ -5191,7 +5198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="9" customFormat="1">
+    <row r="103" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>44419</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="13" customFormat="1">
+    <row r="104" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>44396</v>
       </c>
@@ -5249,7 +5256,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="13" customFormat="1">
+    <row r="105" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>44400</v>
       </c>
@@ -5278,7 +5285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="9" customFormat="1">
+    <row r="106" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>44449</v>
       </c>
@@ -5310,7 +5317,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="13" customFormat="1">
+    <row r="107" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>44418</v>
       </c>
@@ -5327,7 +5334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="9" customFormat="1">
+    <row r="108" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>44448</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="9" customFormat="1">
+    <row r="109" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>44445</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="9" customFormat="1">
+    <row r="110" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>44472</v>
       </c>
@@ -5429,7 +5436,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="9" customFormat="1">
+    <row r="111" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>44506</v>
       </c>
@@ -5464,7 +5471,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="9" customFormat="1">
+    <row r="112" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>44505</v>
       </c>
@@ -5490,7 +5497,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="9" customFormat="1">
+    <row r="113" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>44505</v>
       </c>
@@ -5516,7 +5523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="9" customFormat="1">
+    <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>44479</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="9" customFormat="1">
+    <row r="115" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>44511</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="9" customFormat="1">
+    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>44511</v>
       </c>
@@ -5588,7 +5595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="9" customFormat="1">
+    <row r="117" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>44511</v>
       </c>
@@ -5614,7 +5621,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="118" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>44511</v>
       </c>
@@ -5640,7 +5647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="9" customFormat="1">
+    <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>44511</v>
       </c>
@@ -5666,7 +5673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="9" customFormat="1">
+    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>44511</v>
       </c>
@@ -5692,7 +5699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="9" customFormat="1">
+    <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>44511</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="9" customFormat="1">
+    <row r="122" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>44511</v>
       </c>
@@ -5750,7 +5757,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="9" customFormat="1">
+    <row r="123" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>44511</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="9" customFormat="1">
+    <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>44510</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="9" customFormat="1">
+    <row r="125" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>44479</v>
       </c>
@@ -5846,7 +5853,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44506</v>
       </c>
@@ -5869,7 +5876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44512</v>
       </c>
@@ -5901,7 +5908,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44512</v>
       </c>
@@ -5933,7 +5940,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44512</v>
       </c>
@@ -5965,7 +5972,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44512</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44512</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44512</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44513</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44513</v>
       </c>
@@ -6113,7 +6120,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44513</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44512</v>
       </c>
@@ -6147,7 +6154,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44513</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44513</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44513</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44513</v>
       </c>
@@ -6239,7 +6246,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44514</v>
       </c>
@@ -6262,7 +6269,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44514</v>
       </c>
@@ -6285,7 +6292,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44514</v>
       </c>
@@ -6308,7 +6315,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44514</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44514</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44514</v>
       </c>
@@ -6377,7 +6384,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44514</v>
       </c>
@@ -6400,7 +6407,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44510</v>
       </c>
@@ -6432,7 +6439,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44515</v>
       </c>
@@ -6458,7 +6465,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44515</v>
       </c>
@@ -6484,7 +6491,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44515</v>
       </c>
@@ -6510,7 +6517,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44515</v>
       </c>
@@ -6536,7 +6543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44515</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44515</v>
       </c>
@@ -6588,7 +6595,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44515</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44516</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44516</v>
       </c>
@@ -6666,7 +6673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44516</v>
       </c>
@@ -6692,7 +6699,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44516</v>
       </c>
@@ -6718,7 +6725,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44512</v>
       </c>
@@ -6744,7 +6751,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44515</v>
       </c>
@@ -6770,7 +6777,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44515</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44515</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44487</v>
       </c>
@@ -6854,7 +6861,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44518</v>
       </c>
@@ -6880,7 +6887,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44517</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44517</v>
       </c>
